--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB5544F-E3F5-4586-B567-DC1F4950976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15290FBE-292E-45DC-AF47-F7B0ECB4EEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t>Laccase</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>(Non-Adibatic Non-Isothermal)</t>
-  </si>
-  <si>
-    <t>Additional ELN Page 1: Substances and Parameters</t>
   </si>
   <si>
     <t>Additional ELN Page 2: Properties for JSON-file</t>
@@ -671,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1083,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,90 +1090,105 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>128</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="2">
         <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1193,149 +1202,141 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.6666666666666705E-10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.0833333333333296E-8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.6549999999999999E-7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>4.6243132629629627E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9.6666666666666705E-10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.0833333333333296E-8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.6549999999999999E-7</v>
-      </c>
-      <c r="F10" s="19">
-        <v>4.6243132629629627E-3</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8.3333333333333299E-8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8.3333333333333299E-8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A13" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="37"/>
+      <c r="A14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.93600000000000005</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1343,35 +1344,35 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.93600000000000005</v>
+        <v>122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1.2</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1.2</v>
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1380,35 +1381,23 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>124</v>
+      <c r="A19" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1419,13 +1408,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:F9 B19 B20</xm:sqref>
+          <xm:sqref>B8:F8 B18 B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:F8</xm:sqref>
+          <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1451,14 +1440,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1467,11 +1456,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1926,11 +1915,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15290FBE-292E-45DC-AF47-F7B0ECB4EEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D449C0D-F5A2-434B-9AF4-5C3F81CCB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Substances and Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
     <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
     <sheet name="Additional Info (Units)" sheetId="3" r:id="rId3"/>
     <sheet name="Reactorspecification" sheetId="4" r:id="rId4"/>
-    <sheet name="Dropdown Options" sheetId="5" r:id="rId5"/>
+    <sheet name="PFD" sheetId="6" r:id="rId5"/>
+    <sheet name="Dropdown Options" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
   <si>
     <t>Laccase</t>
   </si>
@@ -400,9 +401,6 @@
     <t>hasKmUnit</t>
   </si>
   <si>
-    <t>Property of Parameters</t>
-  </si>
-  <si>
     <t>hasConstant_Km</t>
   </si>
   <si>
@@ -419,6 +417,153 @@
   </si>
   <si>
     <t>hasStoichiometricCoefficient</t>
+  </si>
+  <si>
+    <t>Kinetic Parameters</t>
+  </si>
+  <si>
+    <t>hasRCT_ObjectType</t>
+  </si>
+  <si>
+    <t>FlowsAtObject</t>
+  </si>
+  <si>
+    <t>Reactant_1</t>
+  </si>
+  <si>
+    <t>Reactant_2</t>
+  </si>
+  <si>
+    <t>Welche graphischen Elemente?</t>
+  </si>
+  <si>
+    <t>Objekttyp des Elements?</t>
+  </si>
+  <si>
+    <t>Materialstream</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>Mixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactor </t>
+  </si>
+  <si>
+    <t>Product_1</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Energystream</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Funktion</t>
+  </si>
+  <si>
+    <t>NodeIn</t>
+  </si>
+  <si>
+    <t>NodeOut</t>
+  </si>
+  <si>
+    <t>NodeEn</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>MaterialStream</t>
+  </si>
+  <si>
+    <t>EnergyStream</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>Expander</t>
+  </si>
+  <si>
+    <t>TPVessel</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Heater</t>
+  </si>
+  <si>
+    <t>Pipe</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>GO_Table</t>
+  </si>
+  <si>
+    <t>GO_Text</t>
+  </si>
+  <si>
+    <t>GO_Image</t>
+  </si>
+  <si>
+    <t>GO_FloatingTable</t>
+  </si>
+  <si>
+    <t>OT_Adjust</t>
+  </si>
+  <si>
+    <t>OT_Spec</t>
+  </si>
+  <si>
+    <t>OT_Recycle</t>
+  </si>
+  <si>
+    <t>RCT_Equilibrium</t>
+  </si>
+  <si>
+    <t>HeatExchanger</t>
+  </si>
+  <si>
+    <t>ShortcutColumn</t>
+  </si>
+  <si>
+    <t>DistillationColumn</t>
+  </si>
+  <si>
+    <t>AbsorptionColumn</t>
+  </si>
+  <si>
+    <t>RefluxedAbsorber</t>
+  </si>
+  <si>
+    <t>ReboiledAbsorber</t>
+  </si>
+  <si>
+    <t>OT_EnergyRecycle</t>
+  </si>
+  <si>
+    <t>GO_Animation</t>
+  </si>
+  <si>
+    <t>ComponentSeparator</t>
   </si>
 </sst>
 </file>
@@ -480,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -664,11 +809,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -762,6 +918,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1311,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1240,89 +1409,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.6666666666666705E-10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.0833333333333296E-8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.6549999999999999E-7</v>
-      </c>
-      <c r="F9" s="19">
-        <v>4.6243132629629627E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8.3333333333333299E-8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="18"/>
@@ -1381,7 +1470,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -1389,7 +1478,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1447,7 +1536,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1895,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,6 +2340,142 @@
       </c>
       <c r="B16" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.6666666666666705E-10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.0833333333333296E-8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.6549999999999999E-7</v>
+      </c>
+      <c r="F21" s="19">
+        <v>4.6243132629629627E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8.3333333333333299E-8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2278,11 +2503,114 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1250D-FF19-4CFC-B2A5-8A7CF7912D19}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,9 +2618,10 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>90</v>
       </c>
@@ -2308,8 +2637,14 @@
       <c r="E1" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
@@ -2325,8 +2660,14 @@
       <c r="E2" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="40">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
@@ -2340,10 +2681,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F3" s="40">
+        <v>1</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32" t="s">
         <v>76</v>
@@ -2355,10 +2702,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F4" s="40">
+        <v>2</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
         <v>77</v>
@@ -2366,6 +2719,276 @@
       <c r="C5" s="33"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
+      <c r="F5" s="40">
+        <v>3</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="40">
+        <v>4</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="40">
+        <v>5</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="40">
+        <v>6</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="40">
+        <v>7</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="40">
+        <v>8</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="40">
+        <v>9</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="40">
+        <v>10</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="40">
+        <v>11</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="40">
+        <v>12</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="40">
+        <v>13</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="40">
+        <v>14</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="40">
+        <v>15</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="40">
+        <v>16</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="40">
+        <v>17</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="40">
+        <v>18</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="40">
+        <v>19</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="40">
+        <v>20</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="40">
+        <v>21</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="40">
+        <v>22</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="40">
+        <v>23</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="40">
+        <v>24</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="40">
+        <v>25</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="40">
+        <v>26</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="40">
+        <v>27</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="40">
+        <v>28</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="40">
+        <v>29</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="40">
+        <v>30</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="40">
+        <v>31</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="40">
+        <v>32</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="40">
+        <v>33</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="40">
+        <v>34</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="40">
+        <v>35</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="40">
+        <v>36</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D449C0D-F5A2-434B-9AF4-5C3F81CCB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F1F08-8563-4468-9BC1-BC4BAFACC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -910,12 +910,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1246,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,11 +1405,43 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="36"/>
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1421,10 +1449,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.93600000000000005</v>
+        <v>123</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1432,11 +1460,11 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>122</v>
+      <c r="A15" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1445,49 +1473,18 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1.2</v>
-      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>120</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1497,7 +1494,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:F8 B18 B19</xm:sqref>
+          <xm:sqref>B8:F8 B14 B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -1545,11 +1542,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1984,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2004,11 +2001,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2471,10 +2468,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2618,7 +2615,7 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,7 +2637,7 @@
       <c r="F1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2660,10 +2657,10 @@
       <c r="E2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="40">
-        <v>0</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="38">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2683,10 +2680,10 @@
       <c r="E3" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2704,10 +2701,10 @@
       <c r="E4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>2</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2719,274 +2716,274 @@
       <c r="C5" s="33"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>3</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>4</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>5</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>6</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <v>7</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <v>8</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="39" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>9</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>10</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>11</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>12</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="39" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>13</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="39" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <v>14</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="39" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <v>15</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="39" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <v>16</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <v>17</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>18</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <v>19</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <v>20</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <v>21</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <v>22</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="40">
+      <c r="F25" s="38">
         <v>23</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="40">
+      <c r="F26" s="38">
         <v>24</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="40">
+      <c r="F27" s="38">
         <v>25</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="40">
+      <c r="F28" s="38">
         <v>26</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="40">
+      <c r="F29" s="38">
         <v>27</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="40">
+      <c r="F30" s="38">
         <v>28</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="39" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="40">
+      <c r="F31" s="38">
         <v>29</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="39" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="40">
+      <c r="F32" s="38">
         <v>30</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="39" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="40">
+      <c r="F33" s="38">
         <v>31</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="39" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="40">
+      <c r="F34" s="38">
         <v>32</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="39" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="40">
+      <c r="F35" s="38">
         <v>33</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="39" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="40">
+      <c r="F36" s="38">
         <v>34</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="40">
+      <c r="F37" s="38">
         <v>35</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="39" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="40">
+      <c r="F38" s="38">
         <v>36</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="39" t="s">
         <v>177</v>
       </c>
     </row>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F1F08-8563-4468-9BC1-BC4BAFACC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C618A-5259-4295-B03D-A6057C45B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
   <si>
     <t>Laccase</t>
   </si>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,9 @@
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="B3" s="35" t="s">
         <v>98</v>
       </c>
@@ -1549,8 +1551,8 @@
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>96</v>
+      <c r="A4" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C618A-5259-4295-B03D-A6057C45B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB030B0-AA33-4080-B7BE-C4574190BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
   <si>
     <t>Laccase</t>
   </si>
@@ -143,9 +143,6 @@
     <t>hasChao_SeaderLiquidMolarVolume</t>
   </si>
   <si>
-    <t>Stoffdatentabelle nur ausfüllen, wenn Stoff nicht in der DWSIM Datenbank hinterlegt ist</t>
-  </si>
-  <si>
     <t>hasCriticalTemperature_Unit</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
     <t>Property</t>
   </si>
   <si>
-    <t>ELN</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>Value/Unit</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
     <t>(Non-Adibatic Non-Isothermal)</t>
   </si>
   <si>
-    <t>Additional ELN Page 2: Properties for JSON-file</t>
-  </si>
-  <si>
     <t>hasStoichiometricCoefficient</t>
   </si>
   <si>
@@ -564,6 +552,9 @@
   </si>
   <si>
     <t>ComponentSeparator</t>
+  </si>
+  <si>
+    <t>Only needed, if compound not already listed in DWSIM substance library</t>
   </si>
 </sst>
 </file>
@@ -605,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,14 +609,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -820,11 +805,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,22 +841,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +912,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1245,7 +1238,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,18 +1249,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1287,7 +1280,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1307,7 +1300,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1327,7 +1320,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1347,7 +1340,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1367,22 +1360,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,14 +1399,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="42"/>
+      <c r="A9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
@@ -1421,68 +1414,68 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="20">
+        <v>115</v>
+      </c>
+      <c r="B12" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>124</v>
+      <c r="A15" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1510,273 +1503,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="10"/>
+    <col min="5" max="16384" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>37</v>
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>375.15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>375.15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>375.15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
+      <c r="A5" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>56000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>514.61900000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>513.61900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-6497</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-9626</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-4356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
-        <v>375.15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>375.15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>375.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
-        <v>56000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>514.61900000000003</v>
-      </c>
-      <c r="D8" s="4">
-        <v>513.61900000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-6497</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-9626</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-4356</v>
+    </row>
+    <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
+        <v>647.14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>647.14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>647.14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>56000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>514.61900000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>513.61900000000003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4">
-        <v>647.14</v>
-      </c>
-      <c r="C14" s="4">
-        <v>647.14</v>
-      </c>
-      <c r="D14" s="4">
-        <v>647.14</v>
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>22064000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>22064000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>22064000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>17</v>
+      <c r="A15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="4">
-        <v>56000</v>
+        <v>5.595E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>514.61900000000003</v>
+        <v>5.595E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>513.61900000000003</v>
+        <v>5.595E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6">
-        <v>22064000</v>
-      </c>
-      <c r="C16" s="6">
-        <v>22064000</v>
-      </c>
-      <c r="D16" s="6">
-        <v>22064000</v>
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
+      <c r="A17" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="4">
-        <v>5.595E-2</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C17" s="4">
-        <v>5.595E-2</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D17" s="4">
-        <v>5.595E-2</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
+      <c r="A18" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="4">
-        <v>0.22900000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>0.22900000000000001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>0.22900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
+      <c r="A19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="4">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>32</v>
+      <c r="A20" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1789,22 +1798,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
+      <c r="A21" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>1.14199E-2</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1.14199E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>1.14199E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>34</v>
+      <c r="A22" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1817,50 +1826,50 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>35</v>
+      <c r="A23" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="4">
-        <v>1.14199E-2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
-        <v>1.14199E-2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>1.14199E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
+      <c r="A25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
+      <c r="A26" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -1873,8 +1882,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>46</v>
+      <c r="A27" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -1887,8 +1896,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>47</v>
+      <c r="A28" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -1901,8 +1910,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>48</v>
+      <c r="A29" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -1915,8 +1924,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>49</v>
+      <c r="A30" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -1929,8 +1938,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>50</v>
+      <c r="A31" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -1942,38 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1981,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,41 +1972,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>96</v>
+      <c r="A4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
+      <c r="A5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>64</v>
@@ -2037,164 +2035,133 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>91</v>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>38</v>
+      <c r="A10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
+      <c r="A11" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>40</v>
+      <c r="A12" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
+      <c r="A13" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2204,7 +2171,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A19" sqref="A19:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,144 +2181,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>97</v>
+      <c r="A1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>99</v>
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19">
+        <v>101325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23">
-        <v>101325</v>
-      </c>
-      <c r="G3" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="B4" s="19">
+        <v>120</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="23">
-        <v>120</v>
-      </c>
-      <c r="G5" s="17"/>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="B6" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="23">
-        <v>60</v>
+        <v>97</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>79</v>
+      <c r="B10" s="4">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4">
-        <v>1.6000000000000001E-3</v>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="6">
-        <v>7.9999999999999996E-6</v>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="2">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -2371,7 +2333,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -2391,7 +2353,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3">
         <v>9.6666666666666705E-10</v>
@@ -2405,33 +2367,33 @@
       <c r="E21" s="3">
         <v>1.6549999999999999E-7</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="15">
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2451,30 +2413,30 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>132</v>
+      <c r="A25" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2487,13 +2449,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B13</xm:sqref>
+          <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2517,19 +2479,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -2537,10 +2499,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -2548,19 +2510,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
@@ -2568,10 +2530,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
@@ -2579,10 +2541,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2590,10 +2552,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2617,376 +2579,376 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="20">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="24">
-        <v>0</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="34">
+        <v>2</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="39" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="34">
+        <v>4</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="34">
+        <v>5</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="34">
+        <v>6</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="34">
+        <v>7</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="34">
+        <v>8</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="34">
+        <v>9</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="34">
+        <v>10</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="34">
+        <v>11</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="34">
+        <v>12</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="34">
+        <v>13</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="34">
+        <v>14</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="34">
         <v>15</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="G17" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="34">
+        <v>16</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="34">
+        <v>17</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="34">
+        <v>18</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="34">
+        <v>19</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="34">
+        <v>20</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="34">
+        <v>21</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="34">
+        <v>22</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="34">
+        <v>23</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="34">
+        <v>24</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="34">
+        <v>25</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="38">
-        <v>0</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="26">
-        <v>2</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="38">
-        <v>1</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="38">
-        <v>2</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="38">
-        <v>3</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="38">
-        <v>4</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="38">
-        <v>5</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="38">
-        <v>6</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="38">
-        <v>7</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="38">
-        <v>8</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="38">
-        <v>9</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="38">
-        <v>10</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="38">
-        <v>11</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="38">
-        <v>12</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="38">
-        <v>13</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="38">
-        <v>14</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="38">
-        <v>15</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="38">
-        <v>16</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="38">
-        <v>17</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="38">
-        <v>18</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="38">
-        <v>19</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="38">
-        <v>20</v>
-      </c>
-      <c r="G22" s="39" t="s">
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="34">
+        <v>26</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="34">
+        <v>27</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="34">
+        <v>28</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="38">
-        <v>21</v>
-      </c>
-      <c r="G23" s="39" t="s">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="34">
+        <v>29</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="38">
-        <v>22</v>
-      </c>
-      <c r="G24" s="39" t="s">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="34">
+        <v>30</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="38">
-        <v>23</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="38">
-        <v>24</v>
-      </c>
-      <c r="G26" s="39" t="s">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="34">
+        <v>31</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="38">
-        <v>25</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="38">
-        <v>26</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="38">
-        <v>27</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="38">
-        <v>28</v>
-      </c>
-      <c r="G30" s="39" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="34">
+        <v>32</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="38">
-        <v>29</v>
-      </c>
-      <c r="G31" s="39" t="s">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="34">
+        <v>33</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="38">
-        <v>30</v>
-      </c>
-      <c r="G32" s="39" t="s">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="34">
+        <v>34</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="38">
-        <v>31</v>
-      </c>
-      <c r="G33" s="39" t="s">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="34">
+        <v>35</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="38">
-        <v>32</v>
-      </c>
-      <c r="G34" s="39" t="s">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="34">
+        <v>36</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="38">
-        <v>33</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="38">
-        <v>34</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="38">
-        <v>35</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="38">
-        <v>36</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB030B0-AA33-4080-B7BE-C4574190BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC05F2A-E82D-49CB-B000-39A5A5890219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
     <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
     <sheet name="Additional Info (Units)" sheetId="3" r:id="rId3"/>
-    <sheet name="Reactorspecification" sheetId="4" r:id="rId4"/>
-    <sheet name="PFD" sheetId="6" r:id="rId5"/>
-    <sheet name="Dropdown Options" sheetId="5" r:id="rId6"/>
+    <sheet name="PFD" sheetId="6" r:id="rId4"/>
+    <sheet name="Material_Streams" sheetId="7" r:id="rId5"/>
+    <sheet name="Reactorspecification" sheetId="4" r:id="rId6"/>
+    <sheet name="Dropdown Options" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="173">
   <si>
     <t>Laccase</t>
   </si>
@@ -56,9 +57,6 @@
     <t>s2</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>p0</t>
   </si>
   <si>
@@ -191,9 +189,6 @@
     <t>mL/mol</t>
   </si>
   <si>
-    <t>(cal/mL)^0.5</t>
-  </si>
-  <si>
     <t>in kJ/kg</t>
   </si>
   <si>
@@ -413,9 +408,6 @@
     <t>hasRCT_ObjectType</t>
   </si>
   <si>
-    <t>FlowsAtObject</t>
-  </si>
-  <si>
     <t>Reactant_1</t>
   </si>
   <si>
@@ -555,6 +547,9 @@
   </si>
   <si>
     <t>Only needed, if compound not already listed in DWSIM substance library</t>
+  </si>
+  <si>
+    <t>EntersAtObject</t>
   </si>
 </sst>
 </file>
@@ -795,22 +790,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -820,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,10 +892,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,15 +901,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,22 +1236,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1260,10 +1261,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1274,13 +1275,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1300,7 +1299,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1320,7 +1319,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1340,7 +1339,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1360,122 +1359,131 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="38"/>
+      <c r="A9" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
       </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="16">
         <v>1.2</v>
       </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1487,7 +1495,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:F8 B14 B15</xm:sqref>
+          <xm:sqref>B8:F8 B14:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -1505,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C31"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,19 +1528,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1547,21 +1555,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>375.15</v>
@@ -1575,21 +1583,21 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>56000</v>
@@ -1603,21 +1611,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>-6497</v>
@@ -1631,49 +1639,49 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>647.14</v>
@@ -1687,7 +1695,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4">
         <v>56000</v>
@@ -1701,7 +1709,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6">
         <v>22064000</v>
@@ -1715,7 +1723,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4">
         <v>5.595E-2</v>
@@ -1729,7 +1737,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>0.22900000000000001</v>
@@ -1743,7 +1751,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4">
         <v>0.34399999999999997</v>
@@ -1757,7 +1765,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1771,7 +1779,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1785,7 +1793,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1799,7 +1807,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4">
         <v>1.14199E-2</v>
@@ -1813,7 +1821,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1827,7 +1835,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -1841,114 +1849,114 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1959,29 +1967,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1995,170 +2003,156 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
+      <c r="B7" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2167,11 +2161,278 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1250D-FF19-4CFC-B2A5-8A7CF7912D19}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7037F176-A61D-4741-A882-FA222D1231BE}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.6666666666666705E-10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.0833333333333296E-8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.6549999999999999E-7</v>
+      </c>
+      <c r="F4" s="15">
+        <v>4.6243132629629627E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.3333333333333299E-8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,15 +2443,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="19">
         <v>101325</v>
@@ -2198,16 +2459,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="19">
         <v>120</v>
@@ -2216,16 +2477,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -2233,15 +2494,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
@@ -2249,15 +2510,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4">
         <v>1.6000000000000001E-3</v>
@@ -2265,23 +2526,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="6">
         <v>7.9999999999999996E-6</v>
@@ -2289,15 +2550,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2305,138 +2566,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9.6666666666666705E-10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8.0833333333333296E-8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.6549999999999999E-7</v>
-      </c>
-      <c r="F21" s="15">
-        <v>4.6243132629629627E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="3">
-        <v>8.3333333333333299E-8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2463,110 +2596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1250D-FF19-4CFC-B2A5-8A7CF7912D19}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -2579,376 +2609,376 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="20">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>141</v>
+        <v>97</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="34">
+        <v>120</v>
+      </c>
+      <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>142</v>
+      <c r="G3" s="33" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="34">
+        <v>121</v>
+      </c>
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>143</v>
+      <c r="G4" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <v>3</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="32">
+        <v>4</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="32">
+        <v>5</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="32">
+        <v>6</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="34">
-        <v>4</v>
-      </c>
-      <c r="G6" s="35" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="32">
+        <v>7</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="34">
-        <v>5</v>
-      </c>
-      <c r="G7" s="35" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="32">
+        <v>8</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="34">
-        <v>6</v>
-      </c>
-      <c r="G8" s="35" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="32">
+        <v>9</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="34">
-        <v>7</v>
-      </c>
-      <c r="G9" s="35" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="32">
+        <v>10</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="34">
-        <v>8</v>
-      </c>
-      <c r="G10" s="35" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="32">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="34">
-        <v>9</v>
-      </c>
-      <c r="G11" s="35" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="32">
+        <v>12</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="34">
-        <v>10</v>
-      </c>
-      <c r="G12" s="35" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="32">
+        <v>13</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="34">
-        <v>11</v>
-      </c>
-      <c r="G13" s="35" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="32">
+        <v>14</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="34">
-        <v>12</v>
-      </c>
-      <c r="G14" s="35" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="32">
+        <v>15</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="34">
-        <v>13</v>
-      </c>
-      <c r="G15" s="35" t="s">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="32">
+        <v>16</v>
+      </c>
+      <c r="G18" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="34">
-        <v>14</v>
-      </c>
-      <c r="G16" s="35" t="s">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="32">
+        <v>17</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="34">
-        <v>15</v>
-      </c>
-      <c r="G17" s="35" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="32">
+        <v>18</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="34">
-        <v>16</v>
-      </c>
-      <c r="G18" s="35" t="s">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="32">
+        <v>19</v>
+      </c>
+      <c r="G21" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="34">
-        <v>17</v>
-      </c>
-      <c r="G19" s="35" t="s">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="32">
+        <v>20</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="34">
-        <v>18</v>
-      </c>
-      <c r="G20" s="35" t="s">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="32">
+        <v>21</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="34">
-        <v>19</v>
-      </c>
-      <c r="G21" s="35" t="s">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="32">
+        <v>22</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="34">
-        <v>20</v>
-      </c>
-      <c r="G22" s="35" t="s">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="32">
+        <v>23</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="32">
+        <v>24</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="34">
-        <v>21</v>
-      </c>
-      <c r="G23" s="35" t="s">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="32">
+        <v>25</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="32">
+        <v>26</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="32">
+        <v>27</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="32">
+        <v>28</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="34">
-        <v>22</v>
-      </c>
-      <c r="G24" s="35" t="s">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="32">
+        <v>29</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="34">
-        <v>23</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="34">
-        <v>24</v>
-      </c>
-      <c r="G26" s="35" t="s">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="32">
+        <v>30</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="34">
-        <v>25</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="34">
-        <v>26</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="34">
-        <v>27</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="34">
-        <v>28</v>
-      </c>
-      <c r="G30" s="35" t="s">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="32">
+        <v>31</v>
+      </c>
+      <c r="G33" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="34">
-        <v>29</v>
-      </c>
-      <c r="G31" s="35" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="32">
+        <v>32</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="34">
-        <v>30</v>
-      </c>
-      <c r="G32" s="35" t="s">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="32">
+        <v>33</v>
+      </c>
+      <c r="G35" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="34">
-        <v>31</v>
-      </c>
-      <c r="G33" s="35" t="s">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="32">
+        <v>34</v>
+      </c>
+      <c r="G36" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="34">
-        <v>32</v>
-      </c>
-      <c r="G34" s="35" t="s">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="32">
+        <v>35</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="34">
-        <v>33</v>
-      </c>
-      <c r="G35" s="35" t="s">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="32">
+        <v>36</v>
+      </c>
+      <c r="G38" s="33" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="34">
-        <v>34</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="34">
-        <v>35</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="34">
-        <v>36</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\NFDI\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC05F2A-E82D-49CB-B000-39A5A5890219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
     <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
     <sheet name="Additional Info (Units)" sheetId="3" r:id="rId3"/>
     <sheet name="PFD" sheetId="6" r:id="rId4"/>
-    <sheet name="Material_Streams" sheetId="7" r:id="rId5"/>
+    <sheet name="Material Streams" sheetId="7" r:id="rId5"/>
     <sheet name="Reactorspecification" sheetId="4" r:id="rId6"/>
     <sheet name="Dropdown Options" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
   <si>
     <t>Laccase</t>
   </si>
@@ -414,15 +413,6 @@
     <t>Reactant_2</t>
   </si>
   <si>
-    <t>Welche graphischen Elemente?</t>
-  </si>
-  <si>
-    <t>Objekttyp des Elements?</t>
-  </si>
-  <si>
-    <t>Materialstream</t>
-  </si>
-  <si>
     <t>Mixer</t>
   </si>
   <si>
@@ -438,9 +428,6 @@
     <t>Heat</t>
   </si>
   <si>
-    <t>Energystream</t>
-  </si>
-  <si>
     <t>Argument</t>
   </si>
   <si>
@@ -550,12 +537,27 @@
   </si>
   <si>
     <t>EntersAtObject</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Reactor</t>
+  </si>
+  <si>
+    <t>output connected to</t>
+  </si>
+  <si>
+    <t>DWSIM-object type</t>
+  </si>
+  <si>
+    <t>DWSIM-object argument</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -605,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -811,11 +813,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,9 +935,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1235,14 +1251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1491,13 +1507,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B14:B15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1510,14 +1526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1534,7 +1550,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -1966,14 +1982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -2161,73 +2177,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F1250D-FF19-4CFC-B2A5-8A7CF7912D19}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
@@ -2235,27 +2270,33 @@
       <c r="C6" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2264,14 +2305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7037F176-A61D-4741-A882-FA222D1231BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2406,7 +2447,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>125</v>
@@ -2428,14 +2469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2578,13 +2619,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2597,14 +2638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
@@ -2629,10 +2670,10 @@
         <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2699,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2722,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2762,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2810,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2818,7 +2859,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2826,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2834,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2842,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2850,7 +2891,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2858,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2866,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2882,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2914,7 +2955,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2922,7 +2963,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2930,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2979,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2946,7 +2987,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -2954,7 +2995,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -2962,7 +3003,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -2970,7 +3011,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -2978,10 +3019,11 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\NFDI\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC23CFF-C061-44B7-857E-3DF0B1689B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>Laccase</t>
   </si>
@@ -308,9 +309,6 @@
     <t>hasVolumeUnit</t>
   </si>
   <si>
-    <t>m³</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -552,12 +550,18 @@
   </si>
   <si>
     <t>DWSIM-object argument</t>
+  </si>
+  <si>
+    <t>isDWSIMObject</t>
+  </si>
+  <si>
+    <t>m^3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -935,12 +939,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,14 +1255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1267,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1277,7 +1281,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1295,7 +1299,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1315,7 +1319,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1375,7 +1379,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
@@ -1415,7 +1419,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="41"/>
@@ -1425,7 +1429,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
@@ -1437,10 +1441,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1449,7 +1453,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="16">
         <v>1.2</v>
@@ -1461,10 +1465,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
@@ -1472,7 +1476,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1485,7 +1489,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1507,13 +1511,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B14:B15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1526,14 +1530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1544,19 +1548,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1982,14 +1986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -1997,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -2005,7 +2009,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2177,14 +2181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -2194,92 +2198,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D1" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2287,16 +2291,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2305,21 +2309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2329,7 +2333,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2347,7 +2351,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2407,7 +2411,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2427,40 +2431,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2469,14 +2473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2484,10 +2488,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,7 +2531,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -2535,7 +2539,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>75</v>
@@ -2543,7 +2547,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
@@ -2575,10 +2579,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,12 +2598,12 @@
         <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2607,10 +2611,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2619,13 +2631,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2638,14 +2650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
@@ -2661,19 +2673,19 @@
         <v>70</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="20">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,19 +2696,19 @@
         <v>71</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="32">
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,19 +2719,19 @@
         <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2728,19 +2740,19 @@
         <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2755,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2779,7 +2791,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,7 +2847,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2851,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2871,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2891,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2899,7 +2911,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2907,7 +2919,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2927,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
@@ -2923,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2931,7 +2943,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
@@ -2947,7 +2959,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
@@ -2955,7 +2967,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2963,7 +2975,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2971,7 +2983,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2979,7 +2991,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2987,7 +2999,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -2995,7 +3007,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3015,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -3011,7 +3023,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3019,7 +3031,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC23CFF-C061-44B7-857E-3DF0B1689B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEDD1E-34F5-484B-9FE8-D348B3D8C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Additional Info (Units)" sheetId="3" r:id="rId3"/>
     <sheet name="PFD" sheetId="6" r:id="rId4"/>
     <sheet name="Material Streams" sheetId="7" r:id="rId5"/>
-    <sheet name="Reactorspecification" sheetId="4" r:id="rId6"/>
+    <sheet name="Reactor Specification" sheetId="4" r:id="rId6"/>
     <sheet name="Dropdown Options" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -2476,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEDD1E-34F5-484B-9FE8-D348B3D8C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56815B90-0E80-41CA-A2F1-86732ABB7A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
   <si>
     <t>Laccase</t>
   </si>
@@ -339,9 +339,6 @@
     <t>RCT_Conversion</t>
   </si>
   <si>
-    <t>hasReactortype</t>
-  </si>
-  <si>
     <t>hasVolumetricFlow</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>Kinetic Parameters</t>
-  </si>
-  <si>
-    <t>hasRCT_ObjectType</t>
   </si>
   <si>
     <t>Reactant_1</t>
@@ -1281,7 +1275,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1299,7 +1293,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1319,7 +1313,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="41"/>
@@ -1429,7 +1423,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
@@ -1441,10 +1435,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="16">
         <v>1.2</v>
@@ -1465,10 +1459,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
@@ -1476,7 +1470,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1489,7 +1483,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1554,13 +1548,13 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2009,7 +2003,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2198,75 +2192,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>98</v>
@@ -2275,15 +2269,15 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2291,16 +2285,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2327,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2351,7 +2345,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2411,7 +2405,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2431,40 +2425,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2474,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2541,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
@@ -2579,50 +2573,34 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7.9999999999999996E-6</v>
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2630,18 +2608,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>'Dropdown Options'!$C$1:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B15</xm:sqref>
+          <xm:sqref>B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2682,10 +2654,10 @@
         <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,13 +2697,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,13 +2718,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,7 +2755,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2839,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,7 +2827,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2863,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2871,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2879,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2887,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2895,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2903,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2911,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2919,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2935,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2967,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2975,7 +2947,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2983,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2991,7 +2963,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2999,7 +2971,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -3007,7 +2979,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -3015,7 +2987,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -3023,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3003,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56815B90-0E80-41CA-A2F1-86732ABB7A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9E7F7-772B-466E-909A-2D2C07F1B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,6 +935,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,7 +2310,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2474,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2495,7 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="45">
         <v>101325</v>
       </c>
     </row>
@@ -2543,7 +2546,7 @@
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="45">
         <v>4</v>
       </c>
     </row>
@@ -2575,7 +2578,7 @@
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="45">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9E7F7-772B-466E-909A-2D2C07F1B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB933AF-00F9-489F-94C9-0D9A1B90C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>Property</t>
   </si>
   <si>
-    <t>Value/Unit</t>
-  </si>
-  <si>
     <t>hasResidenceTimeUnit</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>m^3</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="41"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="16">
         <v>1.2</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1551,13 +1551,13 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2195,92 +2195,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2428,40 +2428,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2474,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>75</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="45">
         <v>4</v>
@@ -2587,12 +2587,12 @@
         <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2648,19 +2648,19 @@
         <v>70</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="20">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,19 +2671,19 @@
         <v>71</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="32">
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2694,19 +2694,19 @@
         <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,19 +2715,19 @@
         <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB933AF-00F9-489F-94C9-0D9A1B90C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314894F-C25E-4130-AC09-5C03CC2FAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,9 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,7 +2471,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2492,7 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="4">
         <v>101325</v>
       </c>
     </row>
@@ -2546,7 +2543,7 @@
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2578,7 +2575,7 @@
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="4">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314894F-C25E-4130-AC09-5C03CC2FAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E64F5-7E75-4936-9B69-0DA3BE29AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E64F5-7E75-4936-9B69-0DA3BE29AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF324452-6BD2-4060-80ED-88B056F588D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>s2</t>
   </si>
   <si>
-    <t>p0</t>
-  </si>
-  <si>
     <t>hasRelativeDensities</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1275,25 +1275,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1373,47 +1373,47 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="41"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
         <v>0.93600000000000005</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="16">
         <v>1.2</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1527,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1542,19 +1542,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1569,21 +1569,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>375.15</v>
@@ -1597,21 +1597,21 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>56000</v>
@@ -1625,21 +1625,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>-6497</v>
@@ -1653,49 +1653,49 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>647.14</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <v>56000</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
         <v>22064000</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>5.595E-2</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>0.22900000000000001</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>0.34399999999999997</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>1.14199E-2</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -1863,114 +1863,114 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2017,156 +2017,156 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2192,92 +2192,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D1" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2285,16 +2285,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2307,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2327,25 +2327,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3">
         <v>9.6666666666666705E-10</v>
@@ -2385,27 +2385,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2425,40 +2425,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2482,15 +2482,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4">
         <v>101325</v>
@@ -2498,16 +2498,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19">
         <v>120</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -2533,15 +2533,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -2549,15 +2549,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4">
         <v>1.6000000000000001E-3</v>
@@ -2565,15 +2565,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4">
         <v>7.9999999999999996E-6</v>
@@ -2581,15 +2581,15 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2639,98 +2639,98 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="20">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="32">
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="25"/>
@@ -2739,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
@@ -2923,7 +2923,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\NFDI\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF324452-6BD2-4060-80ED-88B056F588D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
   <si>
     <t>Laccase</t>
   </si>
@@ -243,15 +242,6 @@
     <t>hasTask</t>
   </si>
   <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>MainSubstrate</t>
-  </si>
-  <si>
-    <t>MainProduct</t>
-  </si>
-  <si>
     <t>Reactant</t>
   </si>
   <si>
@@ -342,9 +332,6 @@
     <t>m3/s</t>
   </si>
   <si>
-    <t>hasRole</t>
-  </si>
-  <si>
     <t>hasEnzymeML_ID</t>
   </si>
   <si>
@@ -357,24 +344,12 @@
     <t>hasCompoundName</t>
   </si>
   <si>
-    <t>hasKmValue</t>
-  </si>
-  <si>
-    <t>has_kcatValue</t>
-  </si>
-  <si>
-    <t>has_kcatUnit</t>
-  </si>
-  <si>
     <t>1/s</t>
   </si>
   <si>
     <t>mol/m3</t>
   </si>
   <si>
-    <t>hasKmUnit</t>
-  </si>
-  <si>
     <t>hasConstant_Km</t>
   </si>
   <si>
@@ -550,12 +525,54 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>kineticType</t>
+  </si>
+  <si>
+    <t>oxidoreductase activity</t>
+  </si>
+  <si>
+    <t>catalyst</t>
+  </si>
+  <si>
+    <t>reactant</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>has_function</t>
+  </si>
+  <si>
+    <t>has_role</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Km_Unit</t>
+  </si>
+  <si>
+    <t>kcat</t>
+  </si>
+  <si>
+    <t>kcat_Unit</t>
+  </si>
+  <si>
+    <t>Henri-Michaelis-Menten rate law</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>kineticDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -605,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -822,11 +839,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -936,9 +971,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,14 +1294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1265,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1275,10 +1320,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1290,10 +1335,11 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1313,7 +1359,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1373,22 +1419,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,21 +1458,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="35"/>
+      <c r="A9" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>166</v>
+      </c>
       <c r="C9" s="41"/>
       <c r="D9" s="14"/>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.93600000000000005</v>
+      <c r="A10" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1434,24 +1482,16 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="41"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1.2</v>
-      </c>
+      <c r="A12" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1459,21 +1499,21 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1482,11 +1522,11 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.21</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1494,10 +1534,52 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1505,13 +1587,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:F8 B14:B15</xm:sqref>
+          <xm:sqref>B8:F8 B19:B20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1524,14 +1606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1542,19 +1624,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1980,14 +2062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -1995,7 +2077,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -2003,7 +2085,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2034,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
@@ -2048,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -2175,14 +2257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -2192,92 +2274,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2285,16 +2367,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2303,21 +2385,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2327,10 +2409,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2345,7 +2427,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2365,7 +2447,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3">
         <v>9.6666666666666705E-10</v>
@@ -2385,27 +2467,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3">
         <v>8.3333333333333299E-8</v>
@@ -2425,40 +2507,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2467,14 +2549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2482,15 +2564,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4">
         <v>101325</v>
@@ -2498,7 +2580,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>54</v>
@@ -2507,7 +2589,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="19">
         <v>120</v>
@@ -2516,7 +2598,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>54</v>
@@ -2525,7 +2607,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -2533,15 +2615,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -2549,15 +2631,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4">
         <v>1.6000000000000001E-3</v>
@@ -2565,15 +2647,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4">
         <v>7.9999999999999996E-6</v>
@@ -2581,15 +2663,15 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -2597,10 +2679,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2691,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2622,14 +2704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
@@ -2639,25 +2721,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="20">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,22 +2747,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="32">
         <v>0</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,49 +2770,49 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="25"/>
@@ -2739,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2779,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,7 +2877,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2835,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2851,7 +2933,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2859,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2965,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2891,7 +2973,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2899,7 +2981,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
@@ -2907,7 +2989,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
@@ -2923,7 +3005,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
@@ -2931,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
@@ -2939,7 +3021,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2947,7 +3029,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -2955,7 +3037,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -2963,7 +3045,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -2971,7 +3053,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -2979,7 +3061,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -2987,7 +3069,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -2995,7 +3077,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3085,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
   <si>
     <t>Laccase</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>kineticDescription</t>
+  </si>
+  <si>
+    <t>kineticOfCompound</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,12 +604,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -622,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -839,29 +836,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -904,13 +883,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,13 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,7 +1264,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="48"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1458,22 +1424,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C10" s="14"/>
@@ -1484,14 +1450,14 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1501,32 +1467,32 @@
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="31" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="2">
-        <v>1.21</v>
+        <v>1.212</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1549,8 +1515,8 @@
       <c r="A17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="16">
-        <v>1.99</v>
+      <c r="B17" s="2">
+        <v>1.986</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1536,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1578,8 +1544,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1626,10 +1596,10 @@
       <c r="A1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
         <v>154</v>
       </c>
       <c r="G1" s="7"/>
@@ -2079,9 +2049,9 @@
       <c r="A1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2143,7 +2113,7 @@
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2157,7 +2127,7 @@
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2282,7 +2252,7 @@
       <c r="C1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2535,7 +2505,7 @@
       <c r="C8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3" t="s">
         <v>113</v>
       </c>
@@ -2591,7 +2561,7 @@
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>120</v>
       </c>
       <c r="G4" s="13"/>
@@ -2609,7 +2579,7 @@
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2716,375 +2686,375 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="20">
-        <v>0</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="32">
+      <c r="C5" s="27"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="30">
         <v>3</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <v>4</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="32">
+      <c r="F7" s="30">
         <v>5</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="32">
+      <c r="F8" s="30">
         <v>6</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="32">
+      <c r="F9" s="30">
         <v>7</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="32">
+      <c r="F10" s="30">
         <v>8</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="32">
+      <c r="F11" s="30">
         <v>9</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="32">
+      <c r="F12" s="30">
         <v>10</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="32">
+      <c r="F13" s="30">
         <v>11</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="32">
+      <c r="F14" s="30">
         <v>12</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="32">
+      <c r="F15" s="30">
         <v>13</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <v>14</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <v>15</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <v>16</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="32">
+      <c r="F19" s="30">
         <v>17</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="32">
+      <c r="F20" s="30">
         <v>18</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="32">
+      <c r="F21" s="30">
         <v>19</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="32">
+      <c r="F22" s="30">
         <v>20</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="32">
+      <c r="F23" s="30">
         <v>21</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="32">
+      <c r="F24" s="30">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="32">
+      <c r="F25" s="30">
         <v>23</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="31" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="32">
+      <c r="F26" s="30">
         <v>24</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="32">
+      <c r="F27" s="30">
         <v>25</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="32">
+      <c r="F28" s="30">
         <v>26</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="32">
+      <c r="F29" s="30">
         <v>27</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="32">
+      <c r="F30" s="30">
         <v>28</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="32">
+      <c r="F31" s="30">
         <v>29</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="32">
+      <c r="F32" s="30">
         <v>30</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="32">
+      <c r="F33" s="30">
         <v>31</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="32">
+      <c r="F34" s="30">
         <v>32</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="32">
+      <c r="F35" s="30">
         <v>33</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="32">
+      <c r="F36" s="30">
         <v>34</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="32">
+      <c r="F37" s="30">
         <v>35</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="32">
+      <c r="F38" s="30">
         <v>36</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>153</v>
       </c>
     </row>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
   <si>
     <t>Laccase</t>
   </si>
@@ -341,9 +341,6 @@
     <t>hasTypeOf_OperationMode</t>
   </si>
   <si>
-    <t>hasCompoundName</t>
-  </si>
-  <si>
     <t>1/s</t>
   </si>
   <si>
@@ -570,6 +567,12 @@
   </si>
   <si>
     <t>kineticOfCompound</t>
+  </si>
+  <si>
+    <t>Michaelis-Menten-Kinetics</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1292,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1385,22 +1388,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,10 +1428,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="14"/>
@@ -1437,10 +1440,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="14"/>
@@ -1464,11 +1467,11 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>177</v>
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
       </c>
       <c r="C13" s="39"/>
       <c r="E13" s="39"/>
@@ -1476,9 +1479,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="14"/>
@@ -1489,10 +1492,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1.212</v>
+        <v>164</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.212</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1513,31 +1516,31 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1.986</v>
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>173</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.986</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1545,9 +1548,17 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1556,12 +1567,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:F8 B19:B20</xm:sqref>
+          <xm:sqref>B8:F8 B20:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1600,13 +1611,13 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2055,7 +2066,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2244,75 +2255,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>93</v>
@@ -2321,15 +2332,15 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -2337,16 +2348,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2370,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2393,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2397,7 +2408,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2497,20 +2508,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2548,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2636,7 +2647,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,10 +2660,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2706,10 +2717,10 @@
         <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2717,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>95</v>
@@ -2732,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2740,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>94</v>
@@ -2749,19 +2760,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="30">
         <v>1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>93</v>
@@ -2770,13 +2781,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="30">
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2791,7 +2802,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,7 +2818,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2839,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2871,7 +2882,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2887,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2895,7 +2906,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2903,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2911,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2919,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2927,7 +2938,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2935,7 +2946,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2943,7 +2954,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -2959,7 +2970,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -2991,7 +3002,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -2999,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -3007,7 +3018,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -3015,7 +3026,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -3023,7 +3034,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3042,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -3039,7 +3050,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -3047,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3055,7 +3066,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -524,9 +524,6 @@
     <t>p2</t>
   </si>
   <si>
-    <t>kineticType</t>
-  </si>
-  <si>
     <t>oxidoreductase activity</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>rateLaw</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1388,22 +1388,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="14"/>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="39"/>
       <c r="E13" s="39"/>
@@ -1482,7 +1482,7 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2">
         <v>1.212</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>104</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2">
         <v>1.986</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>103</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>95</v>
@@ -2751,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>94</v>
@@ -2772,7 +2772,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>93</v>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\NFDI\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606B04D-6759-4FDC-A552-4EA3D3340209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
   <si>
     <t>Laccase</t>
   </si>
@@ -573,12 +574,18 @@
   </si>
   <si>
     <t>rateLaw</t>
+  </si>
+  <si>
+    <t>baseCompound</t>
+  </si>
+  <si>
+    <t>ABTS_red, Oxygen, Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -622,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -821,17 +828,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -843,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -933,7 +929,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,15 +939,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1263,14 +1256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1304,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1433,10 +1426,10 @@
       <c r="B9" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1453,11 +1446,11 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="33"/>
@@ -1473,9 +1466,9 @@
       <c r="B13" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1560,6 +1553,14 @@
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1568,13 +1569,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8 B20:B21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -1587,14 +1588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -2043,14 +2044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -2124,7 +2125,7 @@
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2138,7 +2139,7 @@
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2238,14 +2239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -2263,7 +2264,7 @@
       <c r="C1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2366,14 +2367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2516,7 +2517,7 @@
       <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>112</v>
       </c>
@@ -2530,14 +2531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2672,7 +2673,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
@@ -2685,14 +2686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>

--- a/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
+++ b/Abbaspour/ELNs/New-ELN_Kinetik_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606B04D-6759-4FDC-A552-4EA3D3340209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE1E26-9640-41F4-84DD-1F8C0B54D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33225" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Reactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
   <si>
     <t>Laccase</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>baseCompound</t>
-  </si>
-  <si>
-    <t>ABTS_red, Oxygen, Water</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1557,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
